--- a/Latest Stable Models/greedy algorithm/schedule.xlsx
+++ b/Latest Stable Models/greedy algorithm/schedule.xlsx
@@ -129,7 +129,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="167" formatCode="0.0"/>
+    <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
@@ -343,7 +343,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -355,19 +355,19 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="167" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -773,10 +773,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S28"/>
+  <dimension ref="A1:S29"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I18" sqref="I18:I19"/>
+      <selection activeCell="E29" sqref="E29:S29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -816,31 +816,31 @@
         <v>1</v>
       </c>
       <c r="B2" s="6">
-        <f>A2*$B$11^$B$10</f>
+        <f t="shared" ref="B2:H2" si="0">A2*$B$11^$B$10</f>
         <v>1.2189944199947571</v>
       </c>
       <c r="C2" s="6">
-        <f>B2*$B$11^$B$10</f>
+        <f t="shared" si="0"/>
         <v>1.4859473959783542</v>
       </c>
       <c r="D2" s="6">
-        <f>C2*$B$11^$B$10</f>
+        <f t="shared" si="0"/>
         <v>1.8113615841033537</v>
       </c>
       <c r="E2" s="6">
-        <f>D2*$B$11^$B$10</f>
+        <f t="shared" si="0"/>
         <v>2.2080396636148523</v>
       </c>
       <c r="F2" s="6">
-        <f>E2*$B$11^$B$10</f>
+        <f t="shared" si="0"/>
         <v>2.6915880290736056</v>
       </c>
       <c r="G2" s="6">
-        <f>F2*$B$11^$B$10</f>
+        <f t="shared" si="0"/>
         <v>3.2810307883654115</v>
       </c>
       <c r="H2" s="7">
-        <f>G2*$B$11^$B$10</f>
+        <f t="shared" si="0"/>
         <v>3.9995582228484357</v>
       </c>
       <c r="I2" s="2"/>
@@ -850,35 +850,35 @@
         <v>60</v>
       </c>
       <c r="B3" s="24">
-        <f>$A$3*$B$10*A2</f>
+        <f t="shared" ref="B3:I3" si="1">$A$3*$B$10*A2</f>
         <v>600</v>
       </c>
       <c r="C3" s="9">
-        <f>$A$3*$B$10*B2</f>
+        <f t="shared" si="1"/>
         <v>731.3966519968543</v>
       </c>
       <c r="D3" s="9">
-        <f>$A$3*$B$10*C2</f>
+        <f t="shared" si="1"/>
         <v>891.56843758701257</v>
       </c>
       <c r="E3" s="9">
-        <f>$A$3*$B$10*D2</f>
+        <f t="shared" si="1"/>
         <v>1086.8169504620123</v>
       </c>
       <c r="F3" s="9">
-        <f>$A$3*$B$10*E2</f>
+        <f t="shared" si="1"/>
         <v>1324.8237981689113</v>
       </c>
       <c r="G3" s="9">
-        <f>$A$3*$B$10*F2</f>
+        <f t="shared" si="1"/>
         <v>1614.9528174441634</v>
       </c>
       <c r="H3" s="10">
-        <f>$A$3*$B$10*G2</f>
+        <f t="shared" si="1"/>
         <v>1968.6184730192469</v>
       </c>
       <c r="I3" s="27">
-        <f>$A$3*$B$10*H2</f>
+        <f t="shared" si="1"/>
         <v>2399.7349337090614</v>
       </c>
     </row>
@@ -933,59 +933,59 @@
         <v>0.25</v>
       </c>
       <c r="B7" s="6">
-        <f>A7*$B$11^$B$10</f>
+        <f t="shared" ref="B7:O7" si="2">A7*$B$11^$B$10</f>
         <v>0.30474860499868928</v>
       </c>
       <c r="C7" s="6">
-        <f>B7*$B$11^$B$10</f>
+        <f t="shared" si="2"/>
         <v>0.37148684899458856</v>
       </c>
       <c r="D7" s="6">
-        <f>C7*$B$11^$B$10</f>
+        <f t="shared" si="2"/>
         <v>0.45284039602583842</v>
       </c>
       <c r="E7" s="6">
-        <f>D7*$B$11^$B$10</f>
+        <f t="shared" si="2"/>
         <v>0.55200991590371307</v>
       </c>
       <c r="F7" s="6">
-        <f>E7*$B$11^$B$10</f>
+        <f t="shared" si="2"/>
         <v>0.6728970072684014</v>
       </c>
       <c r="G7" s="6">
-        <f>F7*$B$11^$B$10</f>
+        <f t="shared" si="2"/>
         <v>0.82025769709135288</v>
       </c>
       <c r="H7" s="6">
-        <f>G7*$B$11^$B$10</f>
+        <f t="shared" si="2"/>
         <v>0.99988955571210891</v>
       </c>
       <c r="I7" s="6">
-        <f>H7*$B$11^$B$10</f>
+        <f t="shared" si="2"/>
         <v>1.2188597890240975</v>
       </c>
       <c r="J7" s="6">
-        <f>I7*$B$11^$B$10</f>
+        <f t="shared" si="2"/>
         <v>1.4857832815763619</v>
       </c>
       <c r="K7" s="6">
-        <f>J7*$B$11^$B$10</f>
+        <f t="shared" si="2"/>
         <v>1.8111615295630841</v>
       </c>
       <c r="L7" s="6">
-        <f>K7*$B$11^$B$10</f>
+        <f t="shared" si="2"/>
         <v>2.2077957982465688</v>
       </c>
       <c r="M7" s="6">
-        <f>L7*$B$11^$B$10</f>
+        <f t="shared" si="2"/>
         <v>2.691290758550438</v>
       </c>
       <c r="N7" s="6">
-        <f>M7*$B$11^$B$10</f>
+        <f t="shared" si="2"/>
         <v>3.2806684172564409</v>
       </c>
       <c r="O7" s="7">
-        <f>N7*$B$11^$B$10</f>
+        <f t="shared" si="2"/>
         <v>3.999116494488633</v>
       </c>
     </row>
@@ -998,59 +998,59 @@
         <v>150</v>
       </c>
       <c r="C8" s="9">
-        <f t="shared" ref="C8:P8" si="0">$A$3*$B$10*B7</f>
+        <f t="shared" ref="C8:P8" si="3">$A$3*$B$10*B7</f>
         <v>182.84916299921358</v>
       </c>
       <c r="D8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>222.89210939675314</v>
       </c>
       <c r="E8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>271.70423761550308</v>
       </c>
       <c r="F8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>331.20594954222781</v>
       </c>
       <c r="G8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>403.73820436104086</v>
       </c>
       <c r="H8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>492.15461825481174</v>
       </c>
       <c r="I8" s="25">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>599.93373342726534</v>
       </c>
       <c r="J8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>731.31587341445857</v>
       </c>
       <c r="K8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>891.46996894581707</v>
       </c>
       <c r="L8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1086.6969177378505</v>
       </c>
       <c r="M8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1324.6774789479414</v>
       </c>
       <c r="N8" s="9">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1614.7744551302628</v>
       </c>
       <c r="O8" s="10">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>1968.4010503538645</v>
       </c>
       <c r="P8" s="27">
-        <f t="shared" si="0"/>
+        <f t="shared" si="3"/>
         <v>2399.4698966931796</v>
       </c>
     </row>
@@ -1131,22 +1131,22 @@
         <v>150</v>
       </c>
       <c r="C17" s="24">
-        <f t="shared" ref="C17:G17" si="1">C16*$A$17</f>
+        <f t="shared" ref="C17:G17" si="4">C16*$A$17</f>
         <v>600</v>
       </c>
       <c r="D17" s="26">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>2400</v>
       </c>
       <c r="E17" s="28">
         <v>2848</v>
       </c>
       <c r="F17" s="20">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>5760</v>
       </c>
       <c r="G17" s="19">
-        <f t="shared" si="1"/>
+        <f t="shared" si="4"/>
         <v>12480</v>
       </c>
     </row>
@@ -1424,7 +1424,55 @@
         <v>35</v>
       </c>
     </row>
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E29" s="33">
+        <v>0.25</v>
+      </c>
+      <c r="F29" s="34">
+        <v>0.30474860499868928</v>
+      </c>
+      <c r="G29" s="34">
+        <v>0.37148684899458856</v>
+      </c>
+      <c r="H29" s="34">
+        <v>0.45284039602583842</v>
+      </c>
+      <c r="I29" s="34">
+        <v>0.55200991590371307</v>
+      </c>
+      <c r="J29" s="34">
+        <v>0.6728970072684014</v>
+      </c>
+      <c r="K29" s="34">
+        <v>0.82025769709135288</v>
+      </c>
+      <c r="L29" s="34">
+        <v>0.99988955571210891</v>
+      </c>
+      <c r="M29" s="34">
+        <v>1.2188597890240975</v>
+      </c>
+      <c r="N29" s="34">
+        <v>1.4857832815763619</v>
+      </c>
+      <c r="O29" s="34">
+        <v>1.8111615295630841</v>
+      </c>
+      <c r="P29" s="34">
+        <v>2.2077957982465688</v>
+      </c>
+      <c r="Q29" s="34">
+        <v>2.691290758550438</v>
+      </c>
+      <c r="R29" s="34">
+        <v>3.2806684172564409</v>
+      </c>
+      <c r="S29" s="35">
+        <v>3.999116494488633</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Latest Stable Models/greedy algorithm/schedule.xlsx
+++ b/Latest Stable Models/greedy algorithm/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="36">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
   <si>
     <t>Day 1</t>
   </si>
@@ -122,6 +122,21 @@
   </si>
   <si>
     <t>train7</t>
+  </si>
+  <si>
+    <t>Constraint 1</t>
+  </si>
+  <si>
+    <t>Constraint 2</t>
+  </si>
+  <si>
+    <t>rate decrease</t>
+  </si>
+  <si>
+    <t>sanction/total</t>
+  </si>
+  <si>
+    <t>retr/tr</t>
   </si>
 </sst>
 </file>
@@ -246,7 +261,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="9">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -334,11 +349,146 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="44">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -468,6 +618,36 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="4" borderId="8" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="16" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -773,21 +953,23 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S29"/>
+  <dimension ref="A1:S52"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="E29" sqref="E29:S29"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="D53" sqref="D53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="4" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="9.140625" style="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="9.109375" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>0</v>
@@ -811,7 +993,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -845,7 +1027,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>60</v>
       </c>
@@ -882,8 +1064,8 @@
         <v>2399.7349337090614</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>0</v>
@@ -928,7 +1110,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>0.25</v>
       </c>
@@ -989,7 +1171,7 @@
         <v>3.999116494488633</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <v>60</v>
       </c>
@@ -1054,8 +1236,8 @@
         <v>2399.4698966931796</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>10</v>
       </c>
@@ -1063,7 +1245,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8">
         <v>1.02</v>
       </c>
@@ -1071,8 +1253,8 @@
         <v>0.9</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>4</v>
       </c>
@@ -1090,7 +1272,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <f>(B13*60+B14*60)*4</f>
         <v>2856</v>
@@ -1100,8 +1282,8 @@
       </c>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="12">
         <v>2.5</v>
@@ -1122,7 +1304,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>60</v>
       </c>
@@ -1150,8 +1332,8 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="29">
         <v>150</v>
       </c>
@@ -1207,7 +1389,7 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="33">
         <v>0.25</v>
       </c>
@@ -1254,8 +1436,8 @@
         <v>3.999116494488633</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A24" s="38"/>
       <c r="B24" s="39" t="s">
         <v>14</v>
@@ -1282,7 +1464,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A25" s="41">
         <v>1</v>
       </c>
@@ -1311,8 +1493,8 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="3">
         <v>0</v>
       </c>
@@ -1368,7 +1550,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="8" t="s">
         <v>18</v>
       </c>
@@ -1424,7 +1606,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E29" s="33">
         <v>0.25</v>
       </c>
@@ -1469,6 +1651,237 @@
       </c>
       <c r="S29" s="35">
         <v>3.999116494488633</v>
+      </c>
+    </row>
+    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B31" s="48"/>
+      <c r="C31" s="49" t="s">
+        <v>36</v>
+      </c>
+      <c r="D31" s="50" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
+      <c r="B32" s="51" t="s">
+        <v>18</v>
+      </c>
+      <c r="C32" s="44">
+        <v>0</v>
+      </c>
+      <c r="D32" s="45">
+        <v>1</v>
+      </c>
+      <c r="E32" s="53" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B33" s="51" t="s">
+        <v>19</v>
+      </c>
+      <c r="C33" s="44">
+        <v>0.05</v>
+      </c>
+      <c r="D33" s="45">
+        <f>5/6</f>
+        <v>0.83333333333333337</v>
+      </c>
+      <c r="E33" s="53" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B34" s="51" t="s">
+        <v>20</v>
+      </c>
+      <c r="C34" s="44">
+        <v>1</v>
+      </c>
+      <c r="D34" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B35" s="51" t="s">
+        <v>21</v>
+      </c>
+      <c r="C35" s="44">
+        <v>1</v>
+      </c>
+      <c r="D35" s="45">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B36" s="51" t="s">
+        <v>22</v>
+      </c>
+      <c r="C36" s="44">
+        <v>0</v>
+      </c>
+      <c r="D36" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B37" s="51" t="s">
+        <v>23</v>
+      </c>
+      <c r="C37" s="44">
+        <v>0</v>
+      </c>
+      <c r="D37" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B38" s="51" t="s">
+        <v>24</v>
+      </c>
+      <c r="C38" s="44">
+        <v>0</v>
+      </c>
+      <c r="D38" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B39" s="51" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="44">
+        <v>0</v>
+      </c>
+      <c r="D39" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B40" s="51" t="s">
+        <v>26</v>
+      </c>
+      <c r="C40" s="44">
+        <v>0</v>
+      </c>
+      <c r="D40" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B41" s="51" t="s">
+        <v>27</v>
+      </c>
+      <c r="C41" s="44">
+        <v>0</v>
+      </c>
+      <c r="D41" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B42" s="51" t="s">
+        <v>28</v>
+      </c>
+      <c r="C42" s="44">
+        <v>0</v>
+      </c>
+      <c r="D42" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B43" s="51" t="s">
+        <v>29</v>
+      </c>
+      <c r="C43" s="44">
+        <v>0</v>
+      </c>
+      <c r="D43" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B44" s="51" t="s">
+        <v>30</v>
+      </c>
+      <c r="C44" s="44">
+        <v>0</v>
+      </c>
+      <c r="D44" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B45" s="51" t="s">
+        <v>31</v>
+      </c>
+      <c r="C45" s="44">
+        <v>0</v>
+      </c>
+      <c r="D45" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B46" s="51" t="s">
+        <v>32</v>
+      </c>
+      <c r="C46" s="44">
+        <v>0</v>
+      </c>
+      <c r="D46" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B47" s="51" t="s">
+        <v>33</v>
+      </c>
+      <c r="C47" s="44">
+        <v>0</v>
+      </c>
+      <c r="D47" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="B48" s="51" t="s">
+        <v>34</v>
+      </c>
+      <c r="C48" s="44">
+        <v>0</v>
+      </c>
+      <c r="D48" s="45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B49" s="52" t="s">
+        <v>35</v>
+      </c>
+      <c r="C49" s="46">
+        <v>0</v>
+      </c>
+      <c r="D49" s="47">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B51" s="1" t="s">
+        <v>40</v>
+      </c>
+      <c r="C51" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="D51" s="1" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
+      <c r="B52" s="1" t="s">
+        <v>19</v>
       </c>
     </row>
   </sheetData>

--- a/Latest Stable Models/greedy algorithm/schedule.xlsx
+++ b/Latest Stable Models/greedy algorithm/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="41">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="47">
   <si>
     <t>Day 1</t>
   </si>
@@ -137,6 +137,24 @@
   </si>
   <si>
     <t>retr/tr</t>
+  </si>
+  <si>
+    <t>Duration</t>
+  </si>
+  <si>
+    <t>Rating</t>
+  </si>
+  <si>
+    <t>Retrain</t>
+  </si>
+  <si>
+    <t>Train</t>
+  </si>
+  <si>
+    <t>Overwork</t>
+  </si>
+  <si>
+    <t>&gt; 2848</t>
   </si>
 </sst>
 </file>
@@ -217,7 +235,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -260,6 +278,18 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="18">
     <border>
@@ -488,7 +518,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="54">
+  <cellXfs count="59">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -574,18 +604,6 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -648,6 +666,33 @@
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="1" fontId="7" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="9" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -953,23 +998,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:S52"/>
+  <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A31" workbookViewId="0">
-      <selection activeCell="D53" sqref="D53"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="9.109375" style="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>0</v>
@@ -993,7 +1039,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1027,7 +1073,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>60</v>
       </c>
@@ -1064,8 +1110,8 @@
         <v>2399.7349337090614</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>0</v>
@@ -1110,7 +1156,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>0.25</v>
       </c>
@@ -1171,7 +1217,7 @@
         <v>3.999116494488633</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>60</v>
       </c>
@@ -1236,8 +1282,8 @@
         <v>2399.4698966931796</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>10</v>
       </c>
@@ -1245,45 +1291,66 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
         <v>1.02</v>
       </c>
       <c r="C11" s="19">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="D11" s="1">
+        <f>B11^B10</f>
+        <v>1.2189944199947571</v>
+      </c>
+      <c r="E11" s="1">
+        <f>C11^1.5</f>
+        <v>0.85381496824546244</v>
+      </c>
+      <c r="F11" s="1">
+        <f>E11*D11</f>
+        <v>1.0407956819992195</v>
+      </c>
+      <c r="H11" s="1">
+        <v>600</v>
+      </c>
+      <c r="I11" s="1">
+        <v>90</v>
+      </c>
+      <c r="J11" s="1">
+        <f>I11+H11</f>
+        <v>690</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
-        <v>4</v>
+        <v>3.28</v>
       </c>
       <c r="B13" s="4">
         <v>10</v>
       </c>
       <c r="C13" s="21">
         <f>A13*B11^B13*C11^B14</f>
-        <v>3.9913744861749163</v>
-      </c>
-      <c r="E13" s="36">
+        <v>3.4138098369574394</v>
+      </c>
+      <c r="E13" s="32">
         <v>1440</v>
       </c>
-      <c r="F13" s="36">
+      <c r="F13" s="32">
         <v>3120</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
-        <f>(B13*60+B14*60)*4</f>
-        <v>2856</v>
+        <v>2264</v>
       </c>
       <c r="B14" s="20">
-        <v>1.9</v>
+        <v>1.5</v>
       </c>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12">
         <v>2.5</v>
@@ -1304,7 +1371,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>60</v>
       </c>
@@ -1332,54 +1399,95 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="19" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A20" s="29">
-        <v>150</v>
-      </c>
-      <c r="B20" s="30">
-        <v>182.84916299921358</v>
-      </c>
-      <c r="C20" s="30">
-        <v>222.89210939675314</v>
-      </c>
-      <c r="D20" s="30">
-        <v>271.70423761550308</v>
-      </c>
-      <c r="E20" s="30">
-        <v>331.20594954222781</v>
-      </c>
-      <c r="F20" s="30">
-        <v>403.73820436104086</v>
-      </c>
-      <c r="G20" s="30">
-        <v>492.15461825481174</v>
-      </c>
-      <c r="H20" s="31">
-        <v>599.93373342726534</v>
-      </c>
-      <c r="I20" s="31">
-        <v>731.31587341445857</v>
-      </c>
-      <c r="J20" s="31">
-        <v>891.46996894581707</v>
-      </c>
-      <c r="K20" s="31">
-        <v>1086.6969177378505</v>
-      </c>
-      <c r="L20" s="31">
-        <v>1324.6774789479414</v>
-      </c>
-      <c r="M20" s="31">
-        <v>1614.7744551302628</v>
-      </c>
-      <c r="N20" s="31">
-        <v>1968.4010503538645</v>
-      </c>
-      <c r="O20" s="32">
-        <v>2399.7349337090614</v>
-      </c>
-      <c r="Q20" s="37">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A19" s="52"/>
+      <c r="B19" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C19" s="53"/>
+      <c r="D19" s="53"/>
+      <c r="E19" s="53"/>
+      <c r="F19" s="53"/>
+      <c r="G19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="J19" s="54"/>
+      <c r="K19" s="54"/>
+      <c r="L19" s="54"/>
+      <c r="M19" s="54"/>
+      <c r="N19" s="54"/>
+      <c r="O19" s="54"/>
+      <c r="P19" s="55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A20" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B20" s="50">
+        <f>$J$11*B21</f>
+        <v>172.5</v>
+      </c>
+      <c r="C20" s="50">
+        <f t="shared" ref="C20:O20" si="5">$J$11*C21</f>
+        <v>210.2765374490956</v>
+      </c>
+      <c r="D20" s="50">
+        <f t="shared" si="5"/>
+        <v>256.32592580626613</v>
+      </c>
+      <c r="E20" s="50">
+        <f t="shared" si="5"/>
+        <v>312.45987325782852</v>
+      </c>
+      <c r="F20" s="50">
+        <f t="shared" si="5"/>
+        <v>380.88684197356201</v>
+      </c>
+      <c r="G20" s="50">
+        <f t="shared" si="5"/>
+        <v>464.29893501519695</v>
+      </c>
+      <c r="H20" s="50">
+        <f t="shared" si="5"/>
+        <v>565.97781099303347</v>
+      </c>
+      <c r="I20" s="51">
+        <f t="shared" si="5"/>
+        <v>689.9237934413552</v>
+      </c>
+      <c r="J20" s="51">
+        <f t="shared" si="5"/>
+        <v>841.01325442662733</v>
+      </c>
+      <c r="K20" s="51">
+        <f t="shared" si="5"/>
+        <v>1025.1904642876898</v>
+      </c>
+      <c r="L20" s="51">
+        <f t="shared" si="5"/>
+        <v>1249.701455398528</v>
+      </c>
+      <c r="M20" s="51">
+        <f t="shared" si="5"/>
+        <v>1523.3791007901325</v>
+      </c>
+      <c r="N20" s="51">
+        <f t="shared" si="5"/>
+        <v>1856.9906233998022</v>
+      </c>
+      <c r="O20" s="51">
+        <f t="shared" si="5"/>
+        <v>2263.6612079069441</v>
+      </c>
+      <c r="P20" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q20" s="33">
         <v>2848</v>
       </c>
       <c r="R20" s="1">
@@ -1389,502 +1497,644 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A21" s="33">
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A21" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B21" s="57">
         <v>0.25</v>
       </c>
-      <c r="B21" s="34">
+      <c r="C21" s="57">
         <v>0.30474860499868928</v>
       </c>
-      <c r="C21" s="34">
+      <c r="D21" s="57">
         <v>0.37148684899458856</v>
       </c>
-      <c r="D21" s="34">
+      <c r="E21" s="57">
         <v>0.45284039602583842</v>
       </c>
-      <c r="E21" s="34">
+      <c r="F21" s="57">
         <v>0.55200991590371307</v>
       </c>
-      <c r="F21" s="34">
+      <c r="G21" s="57">
         <v>0.6728970072684014</v>
       </c>
-      <c r="G21" s="34">
+      <c r="H21" s="57">
         <v>0.82025769709135288</v>
       </c>
-      <c r="H21" s="34">
+      <c r="I21" s="57">
         <v>0.99988955571210891</v>
       </c>
-      <c r="I21" s="34">
+      <c r="J21" s="57">
         <v>1.2188597890240975</v>
       </c>
-      <c r="J21" s="34">
+      <c r="K21" s="57">
         <v>1.4857832815763619</v>
       </c>
-      <c r="K21" s="34">
+      <c r="L21" s="57">
         <v>1.8111615295630841</v>
       </c>
-      <c r="L21" s="34">
+      <c r="M21" s="57">
         <v>2.2077957982465688</v>
       </c>
-      <c r="M21" s="34">
+      <c r="N21" s="57">
         <v>2.691290758550438</v>
       </c>
-      <c r="N21" s="34">
+      <c r="O21" s="57">
         <v>3.2806684172564409</v>
       </c>
-      <c r="O21" s="35">
+      <c r="P21" s="58">
         <v>3.999116494488633</v>
       </c>
     </row>
-    <row r="23" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="24" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A24" s="38"/>
-      <c r="B24" s="39" t="s">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A22" s="52"/>
+      <c r="B22" s="53" t="s">
+        <v>43</v>
+      </c>
+      <c r="C22" s="53"/>
+      <c r="D22" s="53"/>
+      <c r="E22" s="53"/>
+      <c r="F22" s="53"/>
+      <c r="G22" s="53"/>
+      <c r="H22" s="53"/>
+      <c r="I22" s="54" t="s">
+        <v>44</v>
+      </c>
+      <c r="J22" s="54"/>
+      <c r="K22" s="54"/>
+      <c r="L22" s="54"/>
+      <c r="M22" s="54"/>
+      <c r="N22" s="54"/>
+      <c r="O22" s="54"/>
+      <c r="P22" s="55" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A23" s="47" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="50">
+        <v>150</v>
+      </c>
+      <c r="C23" s="50">
+        <v>182.84916299921358</v>
+      </c>
+      <c r="D23" s="50">
+        <v>222.89210939675314</v>
+      </c>
+      <c r="E23" s="50">
+        <v>271.70423761550308</v>
+      </c>
+      <c r="F23" s="50">
+        <v>331.20594954222781</v>
+      </c>
+      <c r="G23" s="50">
+        <v>403.73820436104086</v>
+      </c>
+      <c r="H23" s="50">
+        <v>492.15461825481174</v>
+      </c>
+      <c r="I23" s="51">
+        <v>599.93373342726534</v>
+      </c>
+      <c r="J23" s="51">
+        <v>731.31587341445857</v>
+      </c>
+      <c r="K23" s="51">
+        <v>891.46996894581707</v>
+      </c>
+      <c r="L23" s="51">
+        <v>1086.6969177378505</v>
+      </c>
+      <c r="M23" s="51">
+        <v>1324.6774789479414</v>
+      </c>
+      <c r="N23" s="51">
+        <v>1614.7744551302628</v>
+      </c>
+      <c r="O23" s="51">
+        <v>1968.4010503538645</v>
+      </c>
+      <c r="P23" s="56" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q23" s="33">
+        <v>2848</v>
+      </c>
+      <c r="R23" s="1">
+        <v>5760</v>
+      </c>
+      <c r="S23" s="1">
+        <v>12480</v>
+      </c>
+    </row>
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A24" s="48" t="s">
+        <v>42</v>
+      </c>
+      <c r="B24" s="57">
+        <v>0.25</v>
+      </c>
+      <c r="C24" s="57">
+        <v>0.30474860499868928</v>
+      </c>
+      <c r="D24" s="57">
+        <v>0.37148684899458856</v>
+      </c>
+      <c r="E24" s="57">
+        <v>0.45284039602583842</v>
+      </c>
+      <c r="F24" s="57">
+        <v>0.55200991590371307</v>
+      </c>
+      <c r="G24" s="57">
+        <v>0.6728970072684014</v>
+      </c>
+      <c r="H24" s="57">
+        <v>0.82025769709135288</v>
+      </c>
+      <c r="I24" s="57">
+        <v>0.99988955571210891</v>
+      </c>
+      <c r="J24" s="57">
+        <v>1.2188597890240975</v>
+      </c>
+      <c r="K24" s="57">
+        <v>1.4857832815763619</v>
+      </c>
+      <c r="L24" s="57">
+        <v>1.8111615295630841</v>
+      </c>
+      <c r="M24" s="57">
+        <v>2.2077957982465688</v>
+      </c>
+      <c r="N24" s="57">
+        <v>2.691290758550438</v>
+      </c>
+      <c r="O24" s="57">
+        <v>3.2806684172564409</v>
+      </c>
+      <c r="P24" s="58">
+        <v>3.999116494488633</v>
+      </c>
+    </row>
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="35" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="39" t="s">
+      <c r="C27" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="D24" s="39" t="s">
+      <c r="D27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="39" t="s">
+      <c r="E27" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="F24" s="39" t="s">
+      <c r="F27" s="35" t="s">
         <v>15</v>
       </c>
-      <c r="G24" s="39" t="s">
+      <c r="G27" s="35" t="s">
         <v>16</v>
       </c>
-      <c r="H24" s="39" t="s">
+      <c r="H27" s="35" t="s">
         <v>17</v>
       </c>
-      <c r="I24" s="40" t="s">
+      <c r="I27" s="36" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="25" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="41">
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A28" s="37">
         <v>1</v>
       </c>
-      <c r="B25" s="42">
+      <c r="B28" s="38">
         <v>4</v>
       </c>
-      <c r="C25" s="42">
+      <c r="C28" s="38">
         <v>4</v>
       </c>
-      <c r="D25" s="42">
+      <c r="D28" s="38">
         <v>0.25</v>
       </c>
-      <c r="E25" s="42">
+      <c r="E28" s="38">
         <v>4</v>
       </c>
-      <c r="F25" s="42">
+      <c r="F28" s="38">
         <v>4</v>
       </c>
-      <c r="G25" s="42">
+      <c r="G28" s="38">
         <v>0.25</v>
       </c>
-      <c r="H25" s="42">
+      <c r="H28" s="38">
         <v>4</v>
       </c>
-      <c r="I25" s="43">
+      <c r="I28" s="39">
         <v>0.25</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="A27" s="3">
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A30" s="3">
         <v>0</v>
       </c>
-      <c r="B27" s="4">
+      <c r="B30" s="4">
         <v>1</v>
       </c>
-      <c r="C27" s="4">
+      <c r="C30" s="4">
         <v>2</v>
       </c>
-      <c r="D27" s="4">
+      <c r="D30" s="4">
         <v>3</v>
       </c>
-      <c r="E27" s="4">
+      <c r="E30" s="4">
         <v>4</v>
       </c>
-      <c r="F27" s="4">
+      <c r="F30" s="4">
         <v>5</v>
       </c>
-      <c r="G27" s="4">
+      <c r="G30" s="4">
         <v>6</v>
       </c>
-      <c r="H27" s="4">
+      <c r="H30" s="4">
         <v>7</v>
       </c>
-      <c r="I27" s="4">
+      <c r="I30" s="4">
         <v>8</v>
       </c>
-      <c r="J27" s="4">
+      <c r="J30" s="4">
         <v>9</v>
       </c>
-      <c r="K27" s="4">
+      <c r="K30" s="4">
         <v>10</v>
       </c>
-      <c r="L27" s="4">
+      <c r="L30" s="4">
         <v>11</v>
       </c>
-      <c r="M27" s="4">
+      <c r="M30" s="4">
         <v>12</v>
       </c>
-      <c r="N27" s="4">
+      <c r="N30" s="4">
         <v>13</v>
       </c>
-      <c r="O27" s="4">
+      <c r="O30" s="4">
         <v>14</v>
       </c>
-      <c r="P27" s="4">
+      <c r="P30" s="4">
         <v>15</v>
       </c>
-      <c r="Q27" s="4">
+      <c r="Q30" s="4">
         <v>16</v>
       </c>
-      <c r="R27" s="5">
+      <c r="R30" s="5">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="8" t="s">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A31" s="8" t="s">
         <v>18</v>
       </c>
-      <c r="B28" s="20" t="s">
+      <c r="B31" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="C28" s="20" t="s">
+      <c r="C31" s="20" t="s">
         <v>20</v>
       </c>
-      <c r="D28" s="20" t="s">
+      <c r="D31" s="20" t="s">
         <v>21</v>
       </c>
-      <c r="E28" s="20" t="s">
+      <c r="E31" s="20" t="s">
         <v>22</v>
       </c>
-      <c r="F28" s="20" t="s">
+      <c r="F31" s="20" t="s">
         <v>23</v>
       </c>
-      <c r="G28" s="20" t="s">
+      <c r="G31" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="H28" s="20" t="s">
+      <c r="H31" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="I28" s="20" t="s">
+      <c r="I31" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="J28" s="20" t="s">
+      <c r="J31" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="K28" s="20" t="s">
+      <c r="K31" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="L28" s="20" t="s">
+      <c r="L31" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="M28" s="20" t="s">
+      <c r="M31" s="20" t="s">
         <v>30</v>
       </c>
-      <c r="N28" s="20" t="s">
+      <c r="N31" s="20" t="s">
         <v>31</v>
       </c>
-      <c r="O28" s="20" t="s">
+      <c r="O31" s="20" t="s">
         <v>32</v>
       </c>
-      <c r="P28" s="20" t="s">
+      <c r="P31" s="20" t="s">
         <v>33</v>
       </c>
-      <c r="Q28" s="20" t="s">
+      <c r="Q31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="R28" s="19" t="s">
+      <c r="R31" s="19" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="E29" s="33">
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="E32" s="29">
         <v>0.25</v>
       </c>
-      <c r="F29" s="34">
+      <c r="F32" s="30">
         <v>0.30474860499868928</v>
       </c>
-      <c r="G29" s="34">
+      <c r="G32" s="30">
         <v>0.37148684899458856</v>
       </c>
-      <c r="H29" s="34">
+      <c r="H32" s="30">
         <v>0.45284039602583842</v>
       </c>
-      <c r="I29" s="34">
+      <c r="I32" s="30">
         <v>0.55200991590371307</v>
       </c>
-      <c r="J29" s="34">
+      <c r="J32" s="30">
         <v>0.6728970072684014</v>
       </c>
-      <c r="K29" s="34">
+      <c r="K32" s="30">
         <v>0.82025769709135288</v>
       </c>
-      <c r="L29" s="34">
+      <c r="L32" s="30">
         <v>0.99988955571210891</v>
       </c>
-      <c r="M29" s="34">
+      <c r="M32" s="30">
         <v>1.2188597890240975</v>
       </c>
-      <c r="N29" s="34">
+      <c r="N32" s="30">
         <v>1.4857832815763619</v>
       </c>
-      <c r="O29" s="34">
+      <c r="O32" s="30">
         <v>1.8111615295630841</v>
       </c>
-      <c r="P29" s="34">
+      <c r="P32" s="30">
         <v>2.2077957982465688</v>
       </c>
-      <c r="Q29" s="34">
+      <c r="Q32" s="30">
         <v>2.691290758550438</v>
       </c>
-      <c r="R29" s="34">
+      <c r="R32" s="30">
         <v>3.2806684172564409</v>
       </c>
-      <c r="S29" s="35">
+      <c r="S32" s="31">
         <v>3.999116494488633</v>
       </c>
     </row>
-    <row r="30" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="31" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B31" s="48"/>
-      <c r="C31" s="49" t="s">
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B34" s="44"/>
+      <c r="C34" s="45" t="s">
         <v>36</v>
       </c>
-      <c r="D31" s="50" t="s">
+      <c r="D34" s="46" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="32" spans="1:19" x14ac:dyDescent="0.3">
-      <c r="B32" s="51" t="s">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B35" s="47" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="44">
+      <c r="C35" s="40">
         <v>0</v>
       </c>
-      <c r="D32" s="45">
+      <c r="D35" s="41">
         <v>1</v>
       </c>
-      <c r="E32" s="53" t="s">
+      <c r="E35" s="49" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="33" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B33" s="51" t="s">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B36" s="47" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="44">
+      <c r="C36" s="40">
         <v>0.05</v>
       </c>
-      <c r="D33" s="45">
+      <c r="D36" s="41">
         <f>5/6</f>
         <v>0.83333333333333337</v>
       </c>
-      <c r="E33" s="53" t="s">
+      <c r="E36" s="49" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B34" s="51" t="s">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B37" s="47" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="44">
+      <c r="C37" s="40">
         <v>1</v>
       </c>
-      <c r="D34" s="45">
+      <c r="D37" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B35" s="51" t="s">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B38" s="47" t="s">
         <v>21</v>
       </c>
-      <c r="C35" s="44">
+      <c r="C38" s="40">
         <v>1</v>
       </c>
-      <c r="D35" s="45">
+      <c r="D38" s="41">
         <v>0</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B36" s="51" t="s">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B39" s="47" t="s">
         <v>22</v>
       </c>
-      <c r="C36" s="44">
+      <c r="C39" s="40">
         <v>0</v>
       </c>
-      <c r="D36" s="45">
+      <c r="D39" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B37" s="51" t="s">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B40" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="C37" s="44">
+      <c r="C40" s="40">
         <v>0</v>
       </c>
-      <c r="D37" s="45">
+      <c r="D40" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B38" s="51" t="s">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B41" s="47" t="s">
         <v>24</v>
       </c>
-      <c r="C38" s="44">
+      <c r="C41" s="40">
         <v>0</v>
       </c>
-      <c r="D38" s="45">
+      <c r="D41" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B39" s="51" t="s">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B42" s="47" t="s">
         <v>25</v>
       </c>
-      <c r="C39" s="44">
+      <c r="C42" s="40">
         <v>0</v>
       </c>
-      <c r="D39" s="45">
+      <c r="D42" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B40" s="51" t="s">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B43" s="47" t="s">
         <v>26</v>
       </c>
-      <c r="C40" s="44">
+      <c r="C43" s="40">
         <v>0</v>
       </c>
-      <c r="D40" s="45">
+      <c r="D43" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B41" s="51" t="s">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B44" s="47" t="s">
         <v>27</v>
       </c>
-      <c r="C41" s="44">
+      <c r="C44" s="40">
         <v>0</v>
       </c>
-      <c r="D41" s="45">
+      <c r="D44" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B42" s="51" t="s">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B45" s="47" t="s">
         <v>28</v>
       </c>
-      <c r="C42" s="44">
+      <c r="C45" s="40">
         <v>0</v>
       </c>
-      <c r="D42" s="45">
+      <c r="D45" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B43" s="51" t="s">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B46" s="47" t="s">
         <v>29</v>
       </c>
-      <c r="C43" s="44">
+      <c r="C46" s="40">
         <v>0</v>
       </c>
-      <c r="D43" s="45">
+      <c r="D46" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B44" s="51" t="s">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B47" s="47" t="s">
         <v>30</v>
       </c>
-      <c r="C44" s="44">
+      <c r="C47" s="40">
         <v>0</v>
       </c>
-      <c r="D44" s="45">
+      <c r="D47" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B45" s="51" t="s">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="B48" s="47" t="s">
         <v>31</v>
       </c>
-      <c r="C45" s="44">
+      <c r="C48" s="40">
         <v>0</v>
       </c>
-      <c r="D45" s="45">
+      <c r="D48" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B46" s="51" t="s">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B49" s="47" t="s">
         <v>32</v>
       </c>
-      <c r="C46" s="44">
+      <c r="C49" s="40">
         <v>0</v>
       </c>
-      <c r="D46" s="45">
+      <c r="D49" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B47" s="51" t="s">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B50" s="47" t="s">
         <v>33</v>
       </c>
-      <c r="C47" s="44">
+      <c r="C50" s="40">
         <v>0</v>
       </c>
-      <c r="D47" s="45">
+      <c r="D50" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B48" s="51" t="s">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B51" s="47" t="s">
         <v>34</v>
       </c>
-      <c r="C48" s="44">
+      <c r="C51" s="40">
         <v>0</v>
       </c>
-      <c r="D48" s="45">
+      <c r="D51" s="41">
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B49" s="52" t="s">
+    <row r="52" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="B52" s="48" t="s">
         <v>35</v>
       </c>
-      <c r="C49" s="46">
+      <c r="C52" s="42">
         <v>0</v>
       </c>
-      <c r="D49" s="47">
+      <c r="D52" s="43">
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B51" s="1" t="s">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B54" s="1" t="s">
         <v>40</v>
       </c>
-      <c r="C51" s="1" t="s">
+      <c r="C54" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="D51" s="1" t="s">
+      <c r="D54" s="1" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="52" spans="2:4" x14ac:dyDescent="0.3">
-      <c r="B52" s="1" t="s">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+      <c r="B55" s="1" t="s">
         <v>19</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="4">
+    <mergeCell ref="B22:H22"/>
+    <mergeCell ref="I22:O22"/>
+    <mergeCell ref="B19:H19"/>
+    <mergeCell ref="I19:O19"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
 </worksheet>

--- a/Latest Stable Models/greedy algorithm/schedule.xlsx
+++ b/Latest Stable Models/greedy algorithm/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -164,7 +164,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.0"/>
   </numFmts>
-  <fonts count="9" x14ac:knownFonts="1">
+  <fonts count="10" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -230,6 +230,13 @@
       <b/>
       <sz val="11"/>
       <color theme="6" tint="-0.499984740745262"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -518,7 +525,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="59">
+  <cellXfs count="60">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -676,22 +683,25 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="8" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="8" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1000,22 +1010,22 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:S55"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A6" workbookViewId="0">
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
       <selection activeCell="B15" sqref="B15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="9.140625" style="1"/>
-    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.109375" style="1"/>
+    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="9.140625" style="1"/>
-    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="9.109375" style="1"/>
+    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>0</v>
@@ -1039,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1073,7 +1083,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="18">
         <v>60</v>
       </c>
@@ -1110,8 +1120,8 @@
         <v>2399.7349337090614</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>0</v>
@@ -1156,7 +1166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" s="17">
         <v>0.25</v>
       </c>
@@ -1217,7 +1227,7 @@
         <v>3.999116494488633</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="18">
         <v>60</v>
       </c>
@@ -1282,8 +1292,8 @@
         <v>2399.4698966931796</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="B10" s="3">
         <v>10</v>
       </c>
@@ -1291,7 +1301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B11" s="8">
         <v>1.02</v>
       </c>
@@ -1321,8 +1331,8 @@
         <v>690</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
         <v>3.28</v>
       </c>
@@ -1340,7 +1350,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="28">
         <v>2264</v>
       </c>
@@ -1349,8 +1359,10 @@
       </c>
       <c r="C14" s="19"/>
     </row>
-    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="B15" s="59"/>
+    </row>
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
       <c r="B16" s="12">
         <v>2.5</v>
@@ -1371,7 +1383,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="8">
         <v>60</v>
       </c>
@@ -1399,32 +1411,32 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="52"/>
-      <c r="B19" s="53" t="s">
+      <c r="B19" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="53"/>
-      <c r="D19" s="53"/>
-      <c r="E19" s="53"/>
-      <c r="F19" s="53"/>
-      <c r="G19" s="53"/>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54" t="s">
+      <c r="C19" s="57"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="57"/>
+      <c r="F19" s="57"/>
+      <c r="G19" s="57"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="54"/>
-      <c r="K19" s="54"/>
-      <c r="L19" s="54"/>
-      <c r="M19" s="54"/>
-      <c r="N19" s="54"/>
-      <c r="O19" s="54"/>
-      <c r="P19" s="55" t="s">
+      <c r="J19" s="58"/>
+      <c r="K19" s="58"/>
+      <c r="L19" s="58"/>
+      <c r="M19" s="58"/>
+      <c r="N19" s="58"/>
+      <c r="O19" s="58"/>
+      <c r="P19" s="53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A20" s="47" t="s">
         <v>41</v>
       </c>
@@ -1484,7 +1496,7 @@
         <f t="shared" si="5"/>
         <v>2263.6612079069441</v>
       </c>
-      <c r="P20" s="56" t="s">
+      <c r="P20" s="54" t="s">
         <v>46</v>
       </c>
       <c r="Q20" s="33">
@@ -1497,81 +1509,81 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A21" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B21" s="57">
+      <c r="B21" s="55">
         <v>0.25</v>
       </c>
-      <c r="C21" s="57">
+      <c r="C21" s="55">
         <v>0.30474860499868928</v>
       </c>
-      <c r="D21" s="57">
+      <c r="D21" s="55">
         <v>0.37148684899458856</v>
       </c>
-      <c r="E21" s="57">
+      <c r="E21" s="55">
         <v>0.45284039602583842</v>
       </c>
-      <c r="F21" s="57">
+      <c r="F21" s="55">
         <v>0.55200991590371307</v>
       </c>
-      <c r="G21" s="57">
+      <c r="G21" s="55">
         <v>0.6728970072684014</v>
       </c>
-      <c r="H21" s="57">
+      <c r="H21" s="55">
         <v>0.82025769709135288</v>
       </c>
-      <c r="I21" s="57">
+      <c r="I21" s="55">
         <v>0.99988955571210891</v>
       </c>
-      <c r="J21" s="57">
+      <c r="J21" s="55">
         <v>1.2188597890240975</v>
       </c>
-      <c r="K21" s="57">
+      <c r="K21" s="55">
         <v>1.4857832815763619</v>
       </c>
-      <c r="L21" s="57">
+      <c r="L21" s="55">
         <v>1.8111615295630841</v>
       </c>
-      <c r="M21" s="57">
+      <c r="M21" s="55">
         <v>2.2077957982465688</v>
       </c>
-      <c r="N21" s="57">
+      <c r="N21" s="55">
         <v>2.691290758550438</v>
       </c>
-      <c r="O21" s="57">
+      <c r="O21" s="55">
         <v>3.2806684172564409</v>
       </c>
-      <c r="P21" s="58">
+      <c r="P21" s="56">
         <v>3.999116494488633</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="52"/>
-      <c r="B22" s="53" t="s">
+      <c r="B22" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="53"/>
-      <c r="D22" s="53"/>
-      <c r="E22" s="53"/>
-      <c r="F22" s="53"/>
-      <c r="G22" s="53"/>
-      <c r="H22" s="53"/>
-      <c r="I22" s="54" t="s">
+      <c r="C22" s="57"/>
+      <c r="D22" s="57"/>
+      <c r="E22" s="57"/>
+      <c r="F22" s="57"/>
+      <c r="G22" s="57"/>
+      <c r="H22" s="57"/>
+      <c r="I22" s="58" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="54"/>
-      <c r="K22" s="54"/>
-      <c r="L22" s="54"/>
-      <c r="M22" s="54"/>
-      <c r="N22" s="54"/>
-      <c r="O22" s="54"/>
-      <c r="P22" s="55" t="s">
+      <c r="J22" s="58"/>
+      <c r="K22" s="58"/>
+      <c r="L22" s="58"/>
+      <c r="M22" s="58"/>
+      <c r="N22" s="58"/>
+      <c r="O22" s="58"/>
+      <c r="P22" s="53" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A23" s="47" t="s">
         <v>41</v>
       </c>
@@ -1617,7 +1629,7 @@
       <c r="O23" s="51">
         <v>1968.4010503538645</v>
       </c>
-      <c r="P23" s="56" t="s">
+      <c r="P23" s="54" t="s">
         <v>46</v>
       </c>
       <c r="Q23" s="33">
@@ -1630,58 +1642,58 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A24" s="48" t="s">
         <v>42</v>
       </c>
-      <c r="B24" s="57">
+      <c r="B24" s="55">
         <v>0.25</v>
       </c>
-      <c r="C24" s="57">
+      <c r="C24" s="55">
         <v>0.30474860499868928</v>
       </c>
-      <c r="D24" s="57">
+      <c r="D24" s="55">
         <v>0.37148684899458856</v>
       </c>
-      <c r="E24" s="57">
+      <c r="E24" s="55">
         <v>0.45284039602583842</v>
       </c>
-      <c r="F24" s="57">
+      <c r="F24" s="55">
         <v>0.55200991590371307</v>
       </c>
-      <c r="G24" s="57">
+      <c r="G24" s="55">
         <v>0.6728970072684014</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="55">
         <v>0.82025769709135288</v>
       </c>
-      <c r="I24" s="57">
+      <c r="I24" s="55">
         <v>0.99988955571210891</v>
       </c>
-      <c r="J24" s="57">
+      <c r="J24" s="55">
         <v>1.2188597890240975</v>
       </c>
-      <c r="K24" s="57">
+      <c r="K24" s="55">
         <v>1.4857832815763619</v>
       </c>
-      <c r="L24" s="57">
+      <c r="L24" s="55">
         <v>1.8111615295630841</v>
       </c>
-      <c r="M24" s="57">
+      <c r="M24" s="55">
         <v>2.2077957982465688</v>
       </c>
-      <c r="N24" s="57">
+      <c r="N24" s="55">
         <v>2.691290758550438</v>
       </c>
-      <c r="O24" s="57">
+      <c r="O24" s="55">
         <v>3.2806684172564409</v>
       </c>
-      <c r="P24" s="58">
+      <c r="P24" s="56">
         <v>3.999116494488633</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A27" s="34"/>
       <c r="B27" s="35" t="s">
         <v>14</v>
@@ -1708,7 +1720,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A28" s="37">
         <v>1</v>
       </c>
@@ -1737,8 +1749,8 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A30" s="3">
         <v>0</v>
       </c>
@@ -1794,7 +1806,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A31" s="8" t="s">
         <v>18</v>
       </c>
@@ -1850,7 +1862,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="E32" s="29">
         <v>0.25</v>
       </c>
@@ -1897,8 +1909,8 @@
         <v>3.999116494488633</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B34" s="44"/>
       <c r="C34" s="45" t="s">
         <v>36</v>
@@ -1907,7 +1919,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B35" s="47" t="s">
         <v>18</v>
       </c>
@@ -1921,7 +1933,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B36" s="47" t="s">
         <v>19</v>
       </c>
@@ -1936,7 +1948,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B37" s="47" t="s">
         <v>20</v>
       </c>
@@ -1947,7 +1959,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B38" s="47" t="s">
         <v>21</v>
       </c>
@@ -1958,7 +1970,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B39" s="47" t="s">
         <v>22</v>
       </c>
@@ -1969,7 +1981,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B40" s="47" t="s">
         <v>23</v>
       </c>
@@ -1980,7 +1992,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B41" s="47" t="s">
         <v>24</v>
       </c>
@@ -1991,7 +2003,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B42" s="47" t="s">
         <v>25</v>
       </c>
@@ -2002,7 +2014,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B43" s="47" t="s">
         <v>26</v>
       </c>
@@ -2013,7 +2025,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B44" s="47" t="s">
         <v>27</v>
       </c>
@@ -2024,7 +2036,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B45" s="47" t="s">
         <v>28</v>
       </c>
@@ -2035,7 +2047,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B46" s="47" t="s">
         <v>29</v>
       </c>
@@ -2046,7 +2058,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B47" s="47" t="s">
         <v>30</v>
       </c>
@@ -2057,7 +2069,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B48" s="47" t="s">
         <v>31</v>
       </c>
@@ -2068,7 +2080,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B49" s="47" t="s">
         <v>32</v>
       </c>
@@ -2079,7 +2091,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B50" s="47" t="s">
         <v>33</v>
       </c>
@@ -2090,7 +2102,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B51" s="47" t="s">
         <v>34</v>
       </c>
@@ -2101,7 +2113,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
       <c r="B52" s="48" t="s">
         <v>35</v>
       </c>
@@ -2112,7 +2124,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B54" s="1" t="s">
         <v>40</v>
       </c>
@@ -2123,7 +2135,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
       <c r="B55" s="1" t="s">
         <v>19</v>
       </c>

--- a/Latest Stable Models/greedy algorithm/schedule.xlsx
+++ b/Latest Stable Models/greedy algorithm/schedule.xlsx
@@ -695,13 +695,13 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1334,14 +1334,14 @@
     <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" s="22">
-        <v>3.28</v>
+        <v>4</v>
       </c>
       <c r="B13" s="4">
         <v>10</v>
       </c>
       <c r="C13" s="21">
         <f>A13*B11^B13*C11^B14</f>
-        <v>3.4138098369574394</v>
+        <v>0.59280505419013629</v>
       </c>
       <c r="E13" s="32">
         <v>1440</v>
@@ -1355,12 +1355,15 @@
         <v>2264</v>
       </c>
       <c r="B14" s="20">
-        <v>1.5</v>
-      </c>
-      <c r="C14" s="19"/>
+        <v>20</v>
+      </c>
+      <c r="C14" s="19">
+        <f>SUM(B13:B14)*60*A13</f>
+        <v>7200</v>
+      </c>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="B15" s="59"/>
+      <c r="B15" s="57"/>
     </row>
     <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" s="11"/>
@@ -1414,24 +1417,24 @@
     <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="19" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A19" s="52"/>
-      <c r="B19" s="57" t="s">
+      <c r="B19" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C19" s="57"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="57"/>
-      <c r="G19" s="57"/>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58" t="s">
+      <c r="C19" s="58"/>
+      <c r="D19" s="58"/>
+      <c r="E19" s="58"/>
+      <c r="F19" s="58"/>
+      <c r="G19" s="58"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="J19" s="58"/>
-      <c r="K19" s="58"/>
-      <c r="L19" s="58"/>
-      <c r="M19" s="58"/>
-      <c r="N19" s="58"/>
-      <c r="O19" s="58"/>
+      <c r="J19" s="59"/>
+      <c r="K19" s="59"/>
+      <c r="L19" s="59"/>
+      <c r="M19" s="59"/>
+      <c r="N19" s="59"/>
+      <c r="O19" s="59"/>
       <c r="P19" s="53" t="s">
         <v>45</v>
       </c>
@@ -1561,24 +1564,24 @@
     </row>
     <row r="22" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A22" s="52"/>
-      <c r="B22" s="57" t="s">
+      <c r="B22" s="58" t="s">
         <v>43</v>
       </c>
-      <c r="C22" s="57"/>
-      <c r="D22" s="57"/>
-      <c r="E22" s="57"/>
-      <c r="F22" s="57"/>
-      <c r="G22" s="57"/>
-      <c r="H22" s="57"/>
-      <c r="I22" s="58" t="s">
+      <c r="C22" s="58"/>
+      <c r="D22" s="58"/>
+      <c r="E22" s="58"/>
+      <c r="F22" s="58"/>
+      <c r="G22" s="58"/>
+      <c r="H22" s="58"/>
+      <c r="I22" s="59" t="s">
         <v>44</v>
       </c>
-      <c r="J22" s="58"/>
-      <c r="K22" s="58"/>
-      <c r="L22" s="58"/>
-      <c r="M22" s="58"/>
-      <c r="N22" s="58"/>
-      <c r="O22" s="58"/>
+      <c r="J22" s="59"/>
+      <c r="K22" s="59"/>
+      <c r="L22" s="59"/>
+      <c r="M22" s="59"/>
+      <c r="N22" s="59"/>
+      <c r="O22" s="59"/>
       <c r="P22" s="53" t="s">
         <v>45</v>
       </c>

--- a/Latest Stable Models/greedy algorithm/schedule.xlsx
+++ b/Latest Stable Models/greedy algorithm/schedule.xlsx
@@ -1337,11 +1337,11 @@
         <v>4</v>
       </c>
       <c r="B13" s="4">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="C13" s="21">
         <f>A13*B11^B13*C11^B14</f>
-        <v>0.59280505419013629</v>
+        <v>1.25619734641981</v>
       </c>
       <c r="E13" s="32">
         <v>1440</v>
@@ -1355,7 +1355,7 @@
         <v>2264</v>
       </c>
       <c r="B14" s="20">
-        <v>20</v>
+        <v>14</v>
       </c>
       <c r="C14" s="19">
         <f>SUM(B13:B14)*60*A13</f>

--- a/Latest Stable Models/greedy algorithm/schedule.xlsx
+++ b/Latest Stable Models/greedy algorithm/schedule.xlsx
@@ -1011,7 +1011,7 @@
   <dimension ref="A1:S55"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1337,11 +1337,11 @@
         <v>4</v>
       </c>
       <c r="B13" s="4">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C13" s="21">
         <f>A13*B11^B13*C11^B14</f>
-        <v>1.25619734641981</v>
+        <v>1.3597484070714632</v>
       </c>
       <c r="E13" s="32">
         <v>1440</v>
@@ -1359,7 +1359,7 @@
       </c>
       <c r="C14" s="19">
         <f>SUM(B13:B14)*60*A13</f>
-        <v>7200</v>
+        <v>8160</v>
       </c>
     </row>
     <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">

--- a/Latest Stable Models/greedy algorithm/schedule.xlsx
+++ b/Latest Stable Models/greedy algorithm/schedule.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="108" windowWidth="14808" windowHeight="8016"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -1014,18 +1014,18 @@
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.109375" style="1"/>
-    <col min="2" max="2" width="9.5546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" style="1"/>
+    <col min="2" max="2" width="9.5703125" style="1" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="12" style="1" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="10.88671875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="9" width="10.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="15" width="9.109375" style="1"/>
-    <col min="16" max="16" width="10.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="10.85546875" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="9" width="10.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="15" width="9.140625" style="1"/>
+    <col min="16" max="16" width="10.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A1" s="14"/>
       <c r="B1" s="15" t="s">
         <v>0</v>
@@ -1049,7 +1049,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A2" s="17">
         <v>1</v>
       </c>
@@ -1083,7 +1083,7 @@
       </c>
       <c r="I2" s="2"/>
     </row>
-    <row r="3" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="18">
         <v>60</v>
       </c>
@@ -1120,8 +1120,8 @@
         <v>2399.7349337090614</v>
       </c>
     </row>
-    <row r="5" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="6" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A6" s="14"/>
       <c r="B6" s="15" t="s">
         <v>0</v>
@@ -1166,7 +1166,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A7" s="17">
         <v>0.25</v>
       </c>
@@ -1227,7 +1227,7 @@
         <v>3.999116494488633</v>
       </c>
     </row>
-    <row r="8" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A8" s="18">
         <v>60</v>
       </c>
@@ -1292,8 +1292,8 @@
         <v>2399.4698966931796</v>
       </c>
     </row>
-    <row r="9" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="10" spans="1:16" x14ac:dyDescent="0.25">
       <c r="B10" s="3">
         <v>10</v>
       </c>
@@ -1301,7 +1301,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B11" s="8">
         <v>1.02</v>
       </c>
@@ -1331,17 +1331,17 @@
         <v>690</v>
       </c>
     </row>
-    <row r="12" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="13" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A13" s="22">
-        <v>4</v>
+        <v>3.95</v>
       </c>
       <c r="B13" s="4">
         <v>20</v>
       </c>
       <c r="C13" s="21">
         <f>A13*B11^B13*C11^B14</f>
-        <v>1.3597484070714632</v>
+        <v>1.3427515519830699</v>
       </c>
       <c r="E13" s="32">
         <v>1440</v>
@@ -1350,7 +1350,7 @@
         <v>3120</v>
       </c>
     </row>
-    <row r="14" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="28">
         <v>2264</v>
       </c>
@@ -1359,13 +1359,13 @@
       </c>
       <c r="C14" s="19">
         <f>SUM(B13:B14)*60*A13</f>
-        <v>8160</v>
-      </c>
-    </row>
-    <row r="15" spans="1:16" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+        <v>8058</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B15" s="57"/>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.25">
       <c r="A16" s="11"/>
       <c r="B16" s="12">
         <v>2.5</v>
@@ -1386,7 +1386,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="17" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A17" s="8">
         <v>60</v>
       </c>
@@ -1414,8 +1414,8 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="18" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="19" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="19" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A19" s="52"/>
       <c r="B19" s="58" t="s">
         <v>43</v>
@@ -1439,7 +1439,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="20" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A20" s="47" t="s">
         <v>41</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="21" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A21" s="48" t="s">
         <v>42</v>
       </c>
@@ -1562,7 +1562,7 @@
         <v>3.999116494488633</v>
       </c>
     </row>
-    <row r="22" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A22" s="52"/>
       <c r="B22" s="58" t="s">
         <v>43</v>
@@ -1586,7 +1586,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="23" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A23" s="47" t="s">
         <v>41</v>
       </c>
@@ -1645,7 +1645,7 @@
         <v>12480</v>
       </c>
     </row>
-    <row r="24" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A24" s="48" t="s">
         <v>42</v>
       </c>
@@ -1695,8 +1695,8 @@
         <v>3.999116494488633</v>
       </c>
     </row>
-    <row r="26" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="27" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="27" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A27" s="34"/>
       <c r="B27" s="35" t="s">
         <v>14</v>
@@ -1723,7 +1723,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="28" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="28" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A28" s="37">
         <v>1</v>
       </c>
@@ -1752,8 +1752,8 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="29" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="30" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="30" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A30" s="3">
         <v>0</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="31" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="31" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A31" s="8" t="s">
         <v>18</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="32" spans="1:19" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="32" spans="1:19" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="E32" s="29">
         <v>0.25</v>
       </c>
@@ -1912,8 +1912,8 @@
         <v>3.999116494488633</v>
       </c>
     </row>
-    <row r="33" spans="2:5" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
-    <row r="34" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="33" spans="2:5" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
+    <row r="34" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B34" s="44"/>
       <c r="C34" s="45" t="s">
         <v>36</v>
@@ -1922,7 +1922,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="35" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B35" s="47" t="s">
         <v>18</v>
       </c>
@@ -1936,7 +1936,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="36" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="36" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B36" s="47" t="s">
         <v>19</v>
       </c>
@@ -1951,7 +1951,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="37" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="37" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B37" s="47" t="s">
         <v>20</v>
       </c>
@@ -1962,7 +1962,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="38" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B38" s="47" t="s">
         <v>21</v>
       </c>
@@ -1973,7 +1973,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="39" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="39" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B39" s="47" t="s">
         <v>22</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="40" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="40" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B40" s="47" t="s">
         <v>23</v>
       </c>
@@ -1995,7 +1995,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="41" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="41" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B41" s="47" t="s">
         <v>24</v>
       </c>
@@ -2006,7 +2006,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="42" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="42" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B42" s="47" t="s">
         <v>25</v>
       </c>
@@ -2017,7 +2017,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="43" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="43" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B43" s="47" t="s">
         <v>26</v>
       </c>
@@ -2028,7 +2028,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="44" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="44" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B44" s="47" t="s">
         <v>27</v>
       </c>
@@ -2039,7 +2039,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="45" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="45" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B45" s="47" t="s">
         <v>28</v>
       </c>
@@ -2050,7 +2050,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="46" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="46" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B46" s="47" t="s">
         <v>29</v>
       </c>
@@ -2061,7 +2061,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="47" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="47" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B47" s="47" t="s">
         <v>30</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="48" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="48" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B48" s="47" t="s">
         <v>31</v>
       </c>
@@ -2083,7 +2083,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="49" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="49" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B49" s="47" t="s">
         <v>32</v>
       </c>
@@ -2094,7 +2094,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="50" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="50" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B50" s="47" t="s">
         <v>33</v>
       </c>
@@ -2105,7 +2105,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="51" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="51" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B51" s="47" t="s">
         <v>34</v>
       </c>
@@ -2116,7 +2116,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="52" spans="2:4" ht="15" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="52" spans="2:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="B52" s="48" t="s">
         <v>35</v>
       </c>
@@ -2127,7 +2127,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="54" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="54" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B54" s="1" t="s">
         <v>40</v>
       </c>
@@ -2138,7 +2138,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="55" spans="2:4" x14ac:dyDescent="0.3">
+    <row r="55" spans="2:4" x14ac:dyDescent="0.25">
       <c r="B55" s="1" t="s">
         <v>19</v>
       </c>
